--- a/Data/EC/NIT-9005640811.xlsx
+++ b/Data/EC/NIT-9005640811.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CEC025-6DD1-49FE-9FD6-2DCA9CA2BCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F5B6FC-420B-42A5-8F67-49D389A2CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{939EE7C5-9756-4583-946E-7F0B4F372B4D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EE2E0A33-257A-4729-8F51-54239A54FBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="113">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -80,277 +80,268 @@
     <t>WILMER SALAZAR BENAVIDES</t>
   </si>
   <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>9315529</t>
+  </si>
+  <si>
+    <t>CESAR MIGUEL LLERENA PAEZ</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>9315529</t>
-  </si>
-  <si>
-    <t>CESAR MIGUEL LLERENA PAEZ</t>
-  </si>
-  <si>
-    <t>11041549</t>
-  </si>
-  <si>
-    <t>ARGEMIRO PEREZ PEREZ</t>
-  </si>
-  <si>
-    <t>8981362</t>
-  </si>
-  <si>
-    <t>EVER MARTINEZ SANDOVAL</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -449,7 +440,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -462,9 +455,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -664,23 +655,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,10 +699,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,7 +755,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECE7269-4D90-D4A3-653D-936CB40B4BE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399A9769-3369-CE6E-EABA-439BB6DB597D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,8 +1106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{236F4F1D-F633-4202-8783-5AD7BFA9C983}">
-  <dimension ref="B2:J143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB223B4-7CCE-4C12-96E7-6937FFF6D61F}">
+  <dimension ref="B2:J137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1140,7 +1131,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1185,7 +1176,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1217,12 +1208,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4397911</v>
+        <v>4049680</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1233,17 +1224,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1270,13 +1261,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1316,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>16666</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -2641,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2670,7 +2661,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2687,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2733,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2762,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2779,19 +2770,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2808,7 +2799,7 @@
         <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2825,19 +2816,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2854,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2871,19 +2862,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2900,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2917,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2946,7 +2937,7 @@
         <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2963,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2992,7 +2983,7 @@
         <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -3009,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3038,7 +3029,7 @@
         <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3055,19 +3046,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3084,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3101,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G95" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3130,7 +3121,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3147,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3176,7 +3167,7 @@
         <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3193,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3222,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3239,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F101" s="18">
-        <v>16666</v>
+        <v>46400</v>
       </c>
       <c r="G101" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3262,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F102" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3285,13 +3276,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F103" s="18">
         <v>46400</v>
@@ -3308,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F104" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3331,13 +3322,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F105" s="18">
         <v>46400</v>
@@ -3354,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F106" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3377,13 +3368,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F107" s="18">
         <v>46400</v>
@@ -3400,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F108" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3423,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F109" s="18">
         <v>46400</v>
@@ -3446,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F110" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3469,13 +3460,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F111" s="18">
         <v>46400</v>
@@ -3492,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F112" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3515,13 +3506,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F113" s="18">
         <v>46400</v>
@@ -3538,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F114" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3561,13 +3552,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="F115" s="18">
         <v>46400</v>
@@ -3584,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="F116" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3607,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F117" s="18">
         <v>46400</v>
@@ -3630,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F118" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3653,13 +3644,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F119" s="18">
         <v>46400</v>
@@ -3676,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F120" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3699,13 +3690,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F121" s="18">
         <v>46400</v>
@@ -3722,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F122" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3745,13 +3736,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F123" s="18">
         <v>46400</v>
@@ -3768,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F124" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3791,13 +3782,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F125" s="18">
         <v>46400</v>
@@ -3814,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F126" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3837,13 +3828,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F127" s="18">
         <v>46400</v>
@@ -3860,19 +3851,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3883,13 +3874,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D129" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F129" s="18">
         <v>46400</v>
@@ -3906,213 +3897,75 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D130" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F130" s="18">
-        <v>56940</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
+      <c r="B131" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D131" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F135" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F131" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G131" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="26"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="B136" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" s="32"/>
+      <c r="H136" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G137" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="26"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C142" s="32"/>
-      <c r="H142" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C143" s="32"/>
-      <c r="H143" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="B137" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="32"/>
+      <c r="H137" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="H136:J136"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
